--- a/test/resurssit/excel/Paikkausehdotukset_valid.xlsx
+++ b/test/resurssit/excel/Paikkausehdotukset_valid.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t xml:space="preserve">Paikkausehdotukset 2021</t>
   </si>
@@ -65,6 +65,9 @@
     <t xml:space="preserve">Määrä</t>
   </si>
   <si>
+    <t xml:space="preserve">Yksikkö</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kustannusarvio</t>
   </si>
   <si>
@@ -105,9 +108,6 @@
   </si>
   <si>
     <t xml:space="preserve">Paikkausmenetelmät</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yksikkö</t>
   </si>
   <si>
     <t xml:space="preserve">AB-paikkaus levittäjällä </t>
@@ -190,7 +190,7 @@
     <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="169" formatCode="#,##0.00&quot; €&quot;"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -289,17 +289,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -368,7 +357,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -461,10 +450,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -473,16 +458,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -508,29 +489,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.828125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="4.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="4.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="14.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="47.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="45.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="45.33"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,10 +527,11 @@
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -563,10 +545,11 @@
       <c r="K2" s="1"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -580,10 +563,11 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" s="13" customFormat="true" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N3" s="2"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" s="13" customFormat="true" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -623,19 +607,22 @@
       <c r="M4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P4" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="16" t="n">
         <v>11746</v>
@@ -663,16 +650,19 @@
         <v>44378</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="20" t="n">
+      <c r="M5" s="18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="20" t="n">
         <v>10000</v>
       </c>
-      <c r="O5" s="21" t="s">
-        <v>19</v>
+      <c r="P5" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="22" t="n">
         <v>1605</v>
@@ -708,24 +698,27 @@
         <v>44378</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="20" t="n">
+      <c r="M6" s="18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="20" t="n">
         <v>20000</v>
       </c>
-      <c r="O6" s="23" t="s">
-        <v>19</v>
+      <c r="P6" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>23</v>
+      <c r="B7" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="16" t="n">
         <v>280</v>
@@ -733,19 +726,19 @@
       <c r="D7" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="25" t="n">
+      <c r="E7" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="25" t="n">
+      <c r="F7" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="G7" s="25" t="n">
+      <c r="G7" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="H7" s="25" t="n">
+      <c r="H7" s="24" t="n">
         <v>1300</v>
       </c>
-      <c r="I7" s="25"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="17" t="n">
         <v>44348</v>
       </c>
@@ -753,24 +746,27 @@
         <v>44378</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="20" t="n">
+      <c r="M7" s="18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="20" t="n">
         <v>30000</v>
       </c>
-      <c r="O7" s="26" t="s">
-        <v>19</v>
+      <c r="P7" s="25" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>26</v>
+      <c r="B8" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="22" t="n">
         <v>2805</v>
@@ -778,19 +774,19 @@
       <c r="D8" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="25" t="n">
+      <c r="E8" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="F8" s="25" t="n">
+      <c r="F8" s="24" t="n">
         <v>400</v>
       </c>
-      <c r="G8" s="25" t="n">
+      <c r="G8" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="H8" s="25" t="n">
+      <c r="H8" s="24" t="n">
         <v>1400</v>
       </c>
-      <c r="I8" s="25"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="17" t="n">
         <v>44348</v>
       </c>
@@ -798,23 +794,24 @@
         <v>44378</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="20" t="n">
+      <c r="M8" s="18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="20" t="n">
         <v>40000</v>
       </c>
-      <c r="O8" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L9" s="27"/>
-    </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="28"/>
+      <c r="P8" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -823,12 +820,16 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K2"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M5:M8" type="list">
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N5:N8" type="list">
       <formula1>Lähtötiedot!$B$2:$B$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L5:L8" type="list">
+      <formula1>Lähtötiedot!$A$2:$A$17</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M5:M8" type="none">
       <formula1>Lähtötiedot!$A$2:$A$17</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -854,26 +855,26 @@
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.2890625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="50.20703125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -881,79 +882,79 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="s">
-        <v>21</v>
+      <c r="A5" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="27" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="27" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="27" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="s">
-        <v>17</v>
+      <c r="A17" s="27" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
